--- a/tut04/output_individual_roll/1901CE34.xlsx
+++ b/tut04/output_individual_roll/1901CE34.xlsx
@@ -461,8 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORE
-</t>
+          <t>CORE</t>
         </is>
       </c>
     </row>
@@ -484,8 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORE
-</t>
+          <t>CORE</t>
         </is>
       </c>
     </row>
@@ -507,8 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORE
-</t>
+          <t>CORE</t>
         </is>
       </c>
     </row>
@@ -530,8 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORE
-</t>
+          <t>CORE</t>
         </is>
       </c>
     </row>
@@ -553,8 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORE
-</t>
+          <t>CORE</t>
         </is>
       </c>
     </row>
@@ -576,8 +571,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORE
-</t>
+          <t>CORE</t>
         </is>
       </c>
     </row>
@@ -599,8 +593,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Open Elective - II
-</t>
+          <t>Open Elective - II</t>
         </is>
       </c>
     </row>
